--- a/demo/py_outputs/Village_detail_latest3.xlsx
+++ b/demo/py_outputs/Village_detail_latest3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Branch Name</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Darbhanga</t>
   </si>
   <si>
+    <t>Sakri</t>
+  </si>
+  <si>
     <t>Kalaburgi</t>
   </si>
   <si>
@@ -64,12 +67,12 @@
     <t>Ayodhya</t>
   </si>
   <si>
-    <t>Sakri</t>
-  </si>
-  <si>
     <t>Tundla</t>
   </si>
   <si>
+    <t>Benipur</t>
+  </si>
+  <si>
     <t>Chauri Chaura</t>
   </si>
   <si>
@@ -79,16 +82,13 @@
     <t>Kamalapur</t>
   </si>
   <si>
-    <t>Hathras</t>
-  </si>
-  <si>
-    <t>Jalesar</t>
+    <t>Sitamarhi</t>
   </si>
   <si>
     <t>Phulparas</t>
   </si>
   <si>
-    <t>Benipur</t>
+    <t>Lokapur</t>
   </si>
   <si>
     <t>Runnisaidpur</t>
@@ -97,61 +97,46 @@
     <t>Tetari Bazar</t>
   </si>
   <si>
+    <t>Kanti</t>
+  </si>
+  <si>
+    <t>Fatehabad</t>
+  </si>
+  <si>
+    <t>Hubbali</t>
+  </si>
+  <si>
+    <t>Kittur</t>
+  </si>
+  <si>
+    <t>Ranebennur</t>
+  </si>
+  <si>
+    <t>Kiraoli</t>
+  </si>
+  <si>
+    <t>Samastipur</t>
+  </si>
+  <si>
     <t>Chitguppa</t>
   </si>
   <si>
-    <t>Kiraoli</t>
-  </si>
-  <si>
-    <t>Lokapur</t>
-  </si>
-  <si>
     <t>Shamanur</t>
   </si>
   <si>
-    <t>Hubbali</t>
+    <t>Sahebganj</t>
   </si>
   <si>
     <t>Gokak</t>
   </si>
   <si>
-    <t>Ranebennur</t>
-  </si>
-  <si>
-    <t>Kanti</t>
-  </si>
-  <si>
     <t>Rosera</t>
   </si>
   <si>
     <t>Shahpur</t>
   </si>
   <si>
-    <t>Sahebganj</t>
-  </si>
-  <si>
-    <t>Sitamarhi</t>
-  </si>
-  <si>
-    <t>Samastipur</t>
-  </si>
-  <si>
-    <t>Kittur</t>
-  </si>
-  <si>
-    <t>Fatehabad</t>
-  </si>
-  <si>
     <t>Uruwa Bazar</t>
-  </si>
-  <si>
-    <t>Tarabganj</t>
-  </si>
-  <si>
-    <t>Ikauna</t>
-  </si>
-  <si>
-    <t>Mahoba</t>
   </si>
 </sst>
 </file>
@@ -509,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +513,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -536,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -544,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -552,7 +537,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -560,7 +545,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -568,7 +553,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -576,7 +561,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -584,7 +569,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -592,7 +577,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -600,7 +585,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>126</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -608,7 +593,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -616,7 +601,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -624,7 +609,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>116</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -632,7 +617,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -640,7 +625,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -648,7 +633,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -656,7 +641,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>130</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -664,7 +649,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>38</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -672,7 +657,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -680,7 +665,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>153</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -688,7 +673,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>177</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -696,7 +681,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -704,7 +689,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -712,7 +697,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -728,7 +713,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -736,7 +721,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -744,7 +729,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -752,7 +737,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -760,7 +745,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -768,7 +753,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>47</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -776,7 +761,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -784,7 +769,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -792,7 +777,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>33</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -800,7 +785,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -808,7 +793,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -816,7 +801,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -824,7 +809,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -832,47 +817,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
         <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
